--- a/Data/Test/dataset19/input_data.xlsx
+++ b/Data/Test/dataset19/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E6FA6F-74D0-4FFA-8849-D108A0AAD901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FF71A-6F82-4738-BD2C-C2AE54ED7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="8.796875" style="2"/>
-    <col min="8" max="9" width="8.796875" style="3"/>
+    <col min="4" max="4" width="8.75" style="1"/>
+    <col min="5" max="8" width="8.75" style="2"/>
+    <col min="9" max="10" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,23 +594,26 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
         <v>5</v>
       </c>
       <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
       <c r="I1" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -623,23 +626,26 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>25</v>
       </c>
       <c r="I2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -652,23 +658,26 @@
       <c r="D3" s="1">
         <v>90</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>90</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>90</v>
       </c>
       <c r="G3" s="2">
         <v>90</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>90</v>
       </c>
       <c r="I3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,23 +690,26 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -710,52 +722,58 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>10</v>
       </c>
       <c r="I5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>24</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -768,23 +786,26 @@
       <c r="D7" s="1">
         <v>16</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>16</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>16</v>
       </c>
       <c r="I7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -797,23 +818,26 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
         <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>20</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -826,23 +850,26 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -855,23 +882,26 @@
       <c r="D10" s="1">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
-        <v>12</v>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="H10" s="3">
-        <v>12</v>
+      <c r="H10" s="2">
+        <v>20</v>
       </c>
       <c r="I10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -884,23 +914,26 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -913,23 +946,26 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
         <v>20</v>
       </c>
       <c r="G12" s="2">
         <v>20</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>20</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -942,23 +978,26 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>3</v>
+      <c r="H13" s="2">
+        <v>2</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -971,23 +1010,26 @@
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12</v>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>6</v>
+      <c r="H14" s="2">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1000,23 +1042,26 @@
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>8</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>8</v>
       </c>
       <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1029,23 +1074,26 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1058,23 +1106,26 @@
       <c r="D17" s="1">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
         <v>20</v>
       </c>
       <c r="G17" s="2">
         <v>20</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>20</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1087,24 +1138,30 @@
       <c r="D18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="G18" s="2">
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="I18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1117,23 +1174,26 @@
       <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>10</v>
       </c>
       <c r="I19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1146,23 +1206,26 @@
       <c r="D20" s="1">
         <v>0.9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>0.9</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.9</v>
       </c>
       <c r="G20" s="2">
         <v>0.9</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>0.9</v>
       </c>
       <c r="I20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1175,23 +1238,26 @@
       <c r="D21" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>100</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1204,23 +1270,26 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>25</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>25</v>
       </c>
       <c r="G22" s="2">
         <v>25</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>25</v>
       </c>
       <c r="I22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1233,23 +1302,26 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
         <v>20</v>
       </c>
       <c r="G23" s="2">
         <v>20</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>20</v>
       </c>
       <c r="I23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1262,23 +1334,26 @@
       <c r="D24" s="1">
         <v>60</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>60</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>60</v>
       </c>
       <c r="G24" s="2">
         <v>60</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>60</v>
       </c>
       <c r="I24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1291,23 +1366,26 @@
       <c r="D25" s="1">
         <v>6000000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>6000000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>6000000</v>
       </c>
       <c r="G25" s="2">
         <v>6000000</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>6000000</v>
       </c>
       <c r="I25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1320,23 +1398,26 @@
       <c r="D26" s="1">
         <v>9300</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>9300</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>9300</v>
       </c>
       <c r="G26" s="2">
         <v>9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>9300</v>
       </c>
       <c r="I26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1349,23 +1430,26 @@
       <c r="D27" s="1">
         <v>7.5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>7.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>7.5</v>
       </c>
       <c r="G27" s="2">
         <v>7.5</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>7.5</v>
       </c>
       <c r="I27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1378,23 +1462,26 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
         <v>4</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>4</v>
       </c>
       <c r="I28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1407,23 +1494,26 @@
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1436,23 +1526,26 @@
       <c r="D30" s="1">
         <v>4200</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>4200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>4200</v>
       </c>
       <c r="G30" s="2">
         <v>4200</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>4200</v>
       </c>
       <c r="I30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1465,23 +1558,26 @@
       <c r="D31" s="1">
         <v>1100</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>1100</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>1100</v>
       </c>
       <c r="G31" s="2">
         <v>1100</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>1100</v>
       </c>
       <c r="I31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1494,23 +1590,26 @@
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
         <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>10</v>
       </c>
       <c r="I32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1523,23 +1622,26 @@
       <c r="D33" s="1">
         <v>11</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>11</v>
       </c>
       <c r="G33" s="2">
         <v>11</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>11</v>
       </c>
       <c r="I33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1552,23 +1654,26 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>6</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>6</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>6</v>
       </c>
       <c r="I34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1581,23 +1686,26 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>7</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>7</v>
       </c>
       <c r="G35" s="2">
         <v>7</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>7</v>
       </c>
       <c r="I35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1610,23 +1718,26 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>2</v>
       </c>
       <c r="I36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1639,23 +1750,26 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
         <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>3</v>
       </c>
       <c r="I37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1668,19 +1782,22 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1698,9 +1815,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1714,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1845,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1742,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1756,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1770,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1784,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1798,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +1929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1840,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1971,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1985,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1999,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1910,7 +2027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1938,9 +2055,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1957,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2091,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1991,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2025,7 +2142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2042,7 +2159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2110,7 +2227,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +2244,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2261,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2161,7 +2278,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2178,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2195,7 +2312,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2226,9 +2343,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2272,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2283,7 +2400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2294,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2319,9 +2436,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2329,7 +2446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2337,7 +2454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2353,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
